--- a/downloaded_files/PHYS102_Tutorial-35333.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
   </x:si>
   <x:si>
+    <x:t>4250170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Essmat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240049</x:t>
   </x:si>
   <x:si>
@@ -159,6 +168,15 @@
     <x:t>Dai Khaled Mohamed Abdelsalam Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240233</x:t>
   </x:si>
   <x:si>
@@ -184,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمود نجاح مكاوى خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1240097</x:t>
@@ -425,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -733,9 +760,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.730624999999996" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.030625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.880625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -976,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6663675116</x:v>
+        <x:v>45921.6244441782</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1008,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6753310532</x:v>
+        <x:v>45907.6663675116</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1040,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6753310532</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.6303332523</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45909.6303332523</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6661303588</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6661303588</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.669496794</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.0994185532</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.665299537</x:v>
+        <x:v>45907.669496794</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.0996638889</x:v>
+        <x:v>45912.0994185532</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45907.665299537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.673906794</x:v>
+        <x:v>45912.0996638889</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45907.673906794</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1794,6 +1821,102 @@
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
     </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.6667049769</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6646291667</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1806,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Modern Physics (PHYS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Tuesday(11:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/PHYS102_Tutorial-35333.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35333.xlsx
@@ -69,15 +69,6 @@
     <x:t>Eyad Hossni Mohammed ElBakry</x:t>
   </x:si>
   <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
-  </x:si>
-  <x:si>
     <x:t>4250170</x:t>
   </x:si>
   <x:si>
@@ -229,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>OmarAhmedWahbaAhmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو محمد سعيد حسن عبد الفتاح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amr Mohamed Saied Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240122</x:t>
@@ -971,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6724371528</x:v>
+        <x:v>45921.6244441782</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1003,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45921.6244441782</x:v>
+        <x:v>45907.6663675116</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1035,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6663675116</x:v>
+        <x:v>45907.6753310532</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1067,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6753310532</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1099,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45909.6303332523</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1131,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.6303332523</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45907.6661303588</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6661303588</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45907.669496794</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.669496794</x:v>
+        <x:v>45912.0994185532</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.0994185532</x:v>
+        <x:v>45907.665299537</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665299537</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45912.0996638889</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.0996638889</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45927.4624206018</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>

--- a/downloaded_files/PHYS102_Tutorial-35333.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم أحمد محمود سامى بشر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mariam ahmed mahmoud samy bishr</x:t>
   </x:si>
   <x:si>
     <x:t>1240150</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1707,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6659674421</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.6650471065</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Modern Physics (PHYS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Tuesday(11:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/PHYS102_Tutorial-35333.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35333.xlsx
@@ -1698,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6659674421</x:v>
+        <x:v>45929.5820105324</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>

--- a/downloaded_files/PHYS102_Tutorial-35333.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Habiba essam kamel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزه هانى محمد محيى الدين سيد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Hany Mohamed Mohyeldin Sayed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240052</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1026,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6753310532</x:v>
+        <x:v>45931.6271033565</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1058,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6753310532</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1090,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.6303332523</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1122,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45909.6303332523</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6661303588</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6661303588</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.669496794</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.0994185532</x:v>
+        <x:v>45907.669496794</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.665299537</x:v>
+        <x:v>45912.0994185532</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45907.665299537</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.0996638889</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45912.0996638889</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4624206018</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45927.4624206018</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.673906794</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.673906794</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45929.5820105324</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45929.5820105324</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Modern Physics (PHYS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Tuesday(11:14)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/PHYS102_Tutorial-35333.xlsx
+++ b/downloaded_files/PHYS102_Tutorial-35333.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>Habiba essam kamel</x:t>
   </x:si>
   <x:si>
+    <x:t>1240301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسين حسام حسين عمران عمران</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HUSSEIN HOSSAM HUSSEIN OMRAN OMRAN</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240221</x:t>
   </x:si>
   <x:si>
@@ -174,7 +183,7 @@
     <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+    <x:t>Abdelrahman Sayed Abdelraheem Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240233</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1035,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45931.6271033565</x:v>
+        <x:v>45935.4531275116</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1067,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6753310532</x:v>
+        <x:v>45931.6271033565</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1099,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6753310532</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1131,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.6303332523</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6650409375</x:v>
+        <x:v>45909.6303332523</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6661303588</x:v>
+        <x:v>45907.6650409375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6661303588</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.669496794</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.0994185532</x:v>
+        <x:v>45907.669496794</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665299537</x:v>
+        <x:v>45912.0994185532</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45907.665299537</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.0996638889</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6662009259</x:v>
+        <x:v>45912.0996638889</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4624206018</x:v>
+        <x:v>45907.6662009259</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45927.4624206018</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.673906794</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.673906794</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6660547801</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45907.6660547801</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45929.5820105324</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6658079861</x:v>
+        <x:v>45929.5820105324</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6654758102</x:v>
+        <x:v>45907.6658079861</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6667049769</x:v>
+        <x:v>45907.6654758102</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6667049769</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
